--- a/05_Win32Api/014 内核对象 Event 线程同步.xlsx
+++ b/05_Win32Api/014 内核对象 Event 线程同步.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED4E12-17C8-4683-A912-FCE7D07A25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A0CFC-1E17-4598-BF83-A0CF8DB4A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="157">
   <si>
     <t>内核对象</t>
   </si>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t xml:space="preserve">    g_hSet = CreateEvent(NULL, FALSE, TRUE, NULL);   // wait到就自动修改为未通知态，初始化为已通知态 符合生产者模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核对象两种状态，运行时 未通知，停止时 已通知</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -529,6 +533,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -536,6 +541,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -543,11 +549,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1307,8 +1315,8 @@
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:Q18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1390,15 @@
       <c r="B9" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="K9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K11" s="8" t="s">
@@ -1488,7 +1505,7 @@
   <dimension ref="B3:R83"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1582,6 +1599,15 @@
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="L10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2232,7 +2258,7 @@
   </sheetPr>
   <dimension ref="B4:Q174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A146" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A146" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
